--- a/Output/COF_B.xlsx
+++ b/Output/COF_B.xlsx
@@ -450,7 +450,7 @@
         <v>0.8930000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0007</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1.788333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0004666666666666667</v>
+        <v>0.0009333333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2.682666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004333333333333333</v>
+        <v>0.0008666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3.598333333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0017</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4.495333333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03876666666666667</v>
+        <v>0.07753333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5.413666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08146666666666667</v>
+        <v>0.1629333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6.330666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1035666666666667</v>
+        <v>0.2071333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7.240666666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>0.104</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8.150666666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1037</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9.061333333333332</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1036</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>9.973999999999998</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1036</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>10.87766666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1035666666666667</v>
+        <v>0.2071333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>11.79266666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1037333333333333</v>
+        <v>0.2074666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>12.70266666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1039333333333333</v>
+        <v>0.2078666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>13.61</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1043666666666667</v>
+        <v>0.2087333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>14.51933333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1048333333333333</v>
+        <v>0.2096666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>15.42866666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>0.105</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>16.33866666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1048666666666667</v>
+        <v>0.2097333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>17.246</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1048333333333333</v>
+        <v>0.2096666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>18.15533333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1049</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>19.06433333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1048</v>
+        <v>0.2096</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>19.978</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1045666666666667</v>
+        <v>0.2091333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>20.88433333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1044333333333333</v>
+        <v>0.2088666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>21.79433333333333</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1045</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>22.70066666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1046</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>23.61233333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1047666666666667</v>
+        <v>0.2095333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>24.52166666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1050666666666667</v>
+        <v>0.2101333333333334</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>25.43166666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1051666666666667</v>
+        <v>0.2103333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>26.34566666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1052</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>27.251</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1053666666666667</v>
+        <v>0.2107333333333334</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>28.16333333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1055333333333333</v>
+        <v>0.2110666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>29.07033333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1055666666666667</v>
+        <v>0.2111333333333334</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>29.97833333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1058666666666667</v>
+        <v>0.2117333333333333</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>30.891</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1063666666666667</v>
+        <v>0.2127333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>31.80066666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1068333333333333</v>
+        <v>0.2136666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>32.71366666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1070666666666667</v>
+        <v>0.2141333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>33.61866666666666</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1072333333333333</v>
+        <v>0.2144666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>34.52533333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1075333333333333</v>
+        <v>0.2150666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>35.437</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1079333333333333</v>
+        <v>0.2158666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>36.34533333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1081666666666667</v>
+        <v>0.2163333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>37.255</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1086</v>
+        <v>0.2172</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>38.16466666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>0.109</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>39.075</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1092333333333333</v>
+        <v>0.2184666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>39.987</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1095666666666667</v>
+        <v>0.2191333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>40.894</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1101333333333333</v>
+        <v>0.2202666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>41.804</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1105333333333333</v>
+        <v>0.2210666666666666</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>42.71433333333332</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1109333333333333</v>
+        <v>0.2218666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>43.62333333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1113333333333333</v>
+        <v>0.2226666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>44.532</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1116</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>45.44366666666667</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1121333333333333</v>
+        <v>0.2242666666666666</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>46.34833333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1126666666666667</v>
+        <v>0.2253333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>47.26333333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1131333333333333</v>
+        <v>0.2262666666666667</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>48.17166666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1136666666666667</v>
+        <v>0.2273333333333333</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>49.08000000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1144333333333333</v>
+        <v>0.2288666666666666</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>49.99</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1152333333333333</v>
+        <v>0.2304666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>50.90633333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1156666666666667</v>
+        <v>0.2313333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>51.806</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1159666666666667</v>
+        <v>0.2319333333333333</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>52.72</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1163333333333333</v>
+        <v>0.2326666666666667</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>53.62933333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1167666666666666</v>
+        <v>0.2335333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>54.54166666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1172333333333333</v>
+        <v>0.2344666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>55.44633333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1176666666666667</v>
+        <v>0.2353333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>56.35700000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1179333333333333</v>
+        <v>0.2358666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>57.268</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1184666666666667</v>
+        <v>0.2369333333333334</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>58.17633333333333</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1188666666666667</v>
+        <v>0.2377333333333333</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>59.08966666666667</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1192333333333333</v>
+        <v>0.2384666666666667</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>59.99666666666667</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1198</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>60.904</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1204333333333333</v>
+        <v>0.2408666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>61.814</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1207</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>62.72466666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1210333333333333</v>
+        <v>0.2420666666666667</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>63.633</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1219</v>
+        <v>0.2438</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>64.54266666666668</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1226333333333334</v>
+        <v>0.2452666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>65.45566666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>0.123</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>66.36133333333333</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1233</v>
+        <v>0.2466</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>67.27200000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1237666666666667</v>
+        <v>0.2475333333333334</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>68.181</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1243666666666667</v>
+        <v>0.2487333333333333</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>69.09066666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1248666666666667</v>
+        <v>0.2497333333333333</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>70.00333333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1253333333333333</v>
+        <v>0.2506666666666666</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>70.90766666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1259</v>
+        <v>0.2518</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>71.82166666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1267333333333333</v>
+        <v>0.2534666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>72.73433333333334</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1278</v>
+        <v>0.2556</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>73.63800000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1288</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>74.54866666666668</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1298</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>75.45700000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1304666666666667</v>
+        <v>0.2609333333333334</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>76.364</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1306666666666667</v>
+        <v>0.2613333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>77.279</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1310666666666667</v>
+        <v>0.2621333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>78.18633333333334</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1317333333333333</v>
+        <v>0.2634666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>79.09733333333332</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1322666666666667</v>
+        <v>0.2645333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>80.008</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1326666666666667</v>
+        <v>0.2653333333333333</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>80.914</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1336666666666667</v>
+        <v>0.2673333333333333</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>81.82266666666668</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1348666666666667</v>
+        <v>0.2697333333333333</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>82.739</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1362333333333333</v>
+        <v>0.2724666666666667</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>83.64466666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1373666666666667</v>
+        <v>0.2747333333333333</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>84.55199999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>85.46433333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1387666666666667</v>
+        <v>0.2775333333333334</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>86.37466666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1399</v>
+        <v>0.2798</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>87.28466666666668</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1409666666666667</v>
+        <v>0.2819333333333333</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>88.19533333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1415666666666666</v>
+        <v>0.2831333333333333</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>89.09966666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1420333333333333</v>
+        <v>0.2840666666666666</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>90.01166666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1432333333333333</v>
+        <v>0.2864666666666666</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>90.92066666666666</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1453</v>
+        <v>0.2906</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>91.82900000000001</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1472666666666667</v>
+        <v>0.2945333333333334</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>92.73933333333333</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1486666666666667</v>
+        <v>0.2973333333333333</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>93.65233333333333</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1503666666666667</v>
+        <v>0.3007333333333334</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>94.55933333333333</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1519</v>
+        <v>0.3038</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>95.46566666666666</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1526666666666666</v>
+        <v>0.3053333333333333</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>96.37833333333333</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1533333333333333</v>
+        <v>0.3066666666666667</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>97.28633333333335</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1543</v>
+        <v>0.3086</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>98.19433333333332</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1553666666666667</v>
+        <v>0.3107333333333334</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>99.10533333333335</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1566666666666666</v>
+        <v>0.3133333333333333</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>100.0136666666667</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1579</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>100.926</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1599333333333333</v>
+        <v>0.3198666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>101.8346666666667</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1608666666666667</v>
+        <v>0.3217333333333333</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>102.746</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1594</v>
+        <v>0.3188</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>103.6543333333333</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1575666666666667</v>
+        <v>0.3151333333333333</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>104.5643333333333</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1575333333333333</v>
+        <v>0.3150666666666667</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>105.47</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1585666666666667</v>
+        <v>0.3171333333333333</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>106.384</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1605</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>107.2896666666667</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1620333333333333</v>
+        <v>0.3240666666666667</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>108.2016666666667</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1621666666666667</v>
+        <v>0.3243333333333333</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>109.112</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1621</v>
+        <v>0.3242</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>110.0213333333333</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1626333333333333</v>
+        <v>0.3252666666666666</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>110.9333333333333</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1628</v>
+        <v>0.3256</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>111.8366666666667</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1628</v>
+        <v>0.3256</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>112.752</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1622666666666666</v>
+        <v>0.3245333333333333</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>113.6633333333333</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1624333333333333</v>
+        <v>0.3248666666666667</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>114.5663333333333</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1650333333333333</v>
+        <v>0.3300666666666667</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>115.482</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1667</v>
+        <v>0.3334</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>116.3886666666667</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1663</v>
+        <v>0.3326</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>117.297</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1672</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>118.2093333333333</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1689</v>
+        <v>0.3378</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>119.1173333333333</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1703333333333333</v>
+        <v>0.3406666666666667</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>120.028</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1715666666666666</v>
+        <v>0.3431333333333333</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>120.9376666666667</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1719666666666667</v>
+        <v>0.3439333333333334</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>121.8446666666667</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1710333333333333</v>
+        <v>0.3420666666666667</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>122.756</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1704</v>
+        <v>0.3408</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>123.6613333333333</v>
       </c>
       <c r="B137" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>124.5723333333333</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1706333333333333</v>
+        <v>0.3412666666666667</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>125.4853333333333</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1715666666666666</v>
+        <v>0.3431333333333333</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>126.393</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1718333333333333</v>
+        <v>0.3436666666666666</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>127.3036666666667</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1719333333333334</v>
+        <v>0.3438666666666667</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>128.2093333333333</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1723666666666667</v>
+        <v>0.3447333333333333</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>129.122</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1729</v>
+        <v>0.3457999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>130.0306666666667</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1737</v>
+        <v>0.3474</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>130.942</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1758333333333333</v>
+        <v>0.3516666666666666</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>131.852</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1768</v>
+        <v>0.3536</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>132.7576666666667</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1767333333333333</v>
+        <v>0.3534666666666667</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>133.6723333333333</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1772</v>
+        <v>0.3544</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>134.5773333333333</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1786333333333333</v>
+        <v>0.3572666666666667</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>135.4913333333334</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1798</v>
+        <v>0.3596</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>136.3996666666667</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1788</v>
+        <v>0.3576</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>137.3093333333333</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1782666666666667</v>
+        <v>0.3565333333333333</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>138.2196666666667</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1792</v>
+        <v>0.3584</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>139.1273333333333</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1787666666666667</v>
+        <v>0.3575333333333333</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>140.0343333333333</v>
       </c>
       <c r="B155" t="n">
-        <v>0.177</v>
+        <v>0.3539999999999999</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>140.9486666666667</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1769333333333334</v>
+        <v>0.3538666666666667</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>141.8523333333333</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1787333333333333</v>
+        <v>0.3574666666666666</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>142.7646666666667</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1805333333333334</v>
+        <v>0.3610666666666667</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>143.6736666666667</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1811333333333333</v>
+        <v>0.3622666666666667</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>144.5853333333334</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1813666666666667</v>
+        <v>0.3627333333333334</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>145.4916666666666</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1823333333333333</v>
+        <v>0.3646666666666667</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>146.404</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1827333333333333</v>
+        <v>0.3654666666666667</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>147.3163333333333</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1818</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>148.2233333333333</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1814666666666667</v>
+        <v>0.3629333333333333</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>149.128</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1820333333333334</v>
+        <v>0.3640666666666667</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>150.0413333333333</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1823666666666667</v>
+        <v>0.3647333333333334</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>150.9463333333333</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1825</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>151.858</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1828666666666666</v>
+        <v>0.3657333333333333</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>152.772</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1821666666666667</v>
+        <v>0.3643333333333333</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>153.6826666666667</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1818</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>154.59</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1829333333333333</v>
+        <v>0.3658666666666666</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>155.5003333333333</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1840666666666667</v>
+        <v>0.3681333333333334</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>156.408</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1860666666666667</v>
+        <v>0.3721333333333334</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>157.317</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1875333333333333</v>
+        <v>0.3750666666666667</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>158.2316666666667</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1879333333333333</v>
+        <v>0.3758666666666666</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>159.138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1880333333333334</v>
+        <v>0.3760666666666667</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>160.046</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1878333333333333</v>
+        <v>0.3756666666666666</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>160.956</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1883333333333334</v>
+        <v>0.3766666666666667</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>161.867</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1889666666666667</v>
+        <v>0.3779333333333334</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>162.772</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1882</v>
+        <v>0.3764</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>163.6876666666667</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1873333333333334</v>
+        <v>0.3746666666666667</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>164.5953333333333</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1872333333333334</v>
+        <v>0.3744666666666667</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>165.5046666666667</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1885333333333333</v>
+        <v>0.3770666666666667</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>166.414</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1898</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>167.323</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1905666666666667</v>
+        <v>0.3811333333333333</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>168.2336666666667</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1910666666666667</v>
+        <v>0.3821333333333334</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>169.141</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1909666666666666</v>
+        <v>0.3819333333333333</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>170.0513333333333</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1902</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>170.961</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1889666666666666</v>
+        <v>0.3779333333333333</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>171.8733333333333</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1884333333333333</v>
+        <v>0.3768666666666667</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>172.778</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1891333333333333</v>
+        <v>0.3782666666666667</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>173.687</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1897333333333333</v>
+        <v>0.3794666666666666</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>174.6006666666666</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1900666666666666</v>
+        <v>0.3801333333333333</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>175.5066666666667</v>
       </c>
       <c r="B194" t="n">
-        <v>0.19</v>
+        <v>0.3800000000000001</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>176.4183333333333</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1903333333333333</v>
+        <v>0.3806666666666667</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>177.3286666666667</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1908</v>
+        <v>0.3816</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>178.2386666666667</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1911666666666667</v>
+        <v>0.3823333333333334</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>179.148</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1913333333333333</v>
+        <v>0.3826666666666667</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>180.0556666666667</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1921</v>
+        <v>0.3842</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>180.969</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1920666666666667</v>
+        <v>0.3841333333333334</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>181.8763333333333</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1925333333333333</v>
+        <v>0.3850666666666667</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>182.7833333333333</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1926666666666667</v>
+        <v>0.3853333333333334</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>183.6973333333334</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1923</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>184.603</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1921333333333334</v>
+        <v>0.3842666666666667</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>185.511</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1922666666666667</v>
+        <v>0.3845333333333333</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>186.4253333333334</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1915666666666667</v>
+        <v>0.3831333333333333</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>187.3306666666666</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1909666666666666</v>
+        <v>0.3819333333333333</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>188.2463333333334</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1925</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>189.1526666666667</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1938666666666667</v>
+        <v>0.3877333333333333</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>190.0623333333333</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1934666666666667</v>
+        <v>0.3869333333333334</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>190.9723333333333</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1919</v>
+        <v>0.3838</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>191.8776666666667</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1917</v>
+        <v>0.3834</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>192.7896666666666</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1926666666666667</v>
+        <v>0.3853333333333334</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>193.6983333333334</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1931333333333334</v>
+        <v>0.3862666666666667</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>194.6093333333333</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1924</v>
+        <v>0.3848</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>195.5143333333333</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1921666666666667</v>
+        <v>0.3843333333333334</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>196.4256666666667</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1923333333333333</v>
+        <v>0.3846666666666667</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>197.34</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1930666666666667</v>
+        <v>0.3861333333333334</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>198.249</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1943666666666667</v>
+        <v>0.3887333333333334</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>199.1566666666667</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1950333333333333</v>
+        <v>0.3900666666666666</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>200.063</v>
       </c>
       <c r="B221" t="n">
-        <v>0.1951333333333333</v>
+        <v>0.3902666666666666</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>200.976</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1954</v>
+        <v>0.3908</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>201.8836666666666</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1964333333333333</v>
+        <v>0.3928666666666666</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>202.796</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1984333333333333</v>
+        <v>0.3968666666666666</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>203.703</v>
       </c>
       <c r="B225" t="n">
-        <v>0.2004666666666667</v>
+        <v>0.4009333333333333</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>204.6136666666667</v>
       </c>
       <c r="B226" t="n">
-        <v>0.2021333333333334</v>
+        <v>0.4042666666666667</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>205.5236666666667</v>
       </c>
       <c r="B227" t="n">
-        <v>0.2019</v>
+        <v>0.4037999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>206.434</v>
       </c>
       <c r="B228" t="n">
-        <v>0.2001666666666667</v>
+        <v>0.4003333333333334</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>207.3436666666667</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1991</v>
+        <v>0.3982000000000001</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>208.2523333333334</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1988666666666667</v>
+        <v>0.3977333333333333</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>209.1626666666667</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1982666666666667</v>
+        <v>0.3965333333333333</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>210.0703333333333</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1977333333333333</v>
+        <v>0.3954666666666666</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>210.9806666666667</v>
       </c>
       <c r="B233" t="n">
-        <v>0.198</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>211.8893333333333</v>
       </c>
       <c r="B234" t="n">
-        <v>0.1981</v>
+        <v>0.3962000000000001</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>212.8013333333333</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1970666666666666</v>
+        <v>0.3941333333333333</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>213.7116666666667</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1957333333333333</v>
+        <v>0.3914666666666666</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>214.6196666666666</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1960333333333333</v>
+        <v>0.3920666666666666</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>215.5273333333334</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1968666666666667</v>
+        <v>0.3937333333333333</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>216.438</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1981</v>
+        <v>0.3962000000000001</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>217.348</v>
       </c>
       <c r="B240" t="n">
-        <v>0.2001333333333334</v>
+        <v>0.4002666666666667</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>218.2616666666667</v>
       </c>
       <c r="B241" t="n">
-        <v>0.2011666666666667</v>
+        <v>0.4023333333333334</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>219.1653333333333</v>
       </c>
       <c r="B242" t="n">
-        <v>0.2011</v>
+        <v>0.4021999999999999</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>220.0753333333333</v>
       </c>
       <c r="B243" t="n">
-        <v>0.2008</v>
+        <v>0.4016</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>220.9856666666667</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2021</v>
+        <v>0.4042000000000001</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>221.8976666666667</v>
       </c>
       <c r="B245" t="n">
-        <v>0.2034</v>
+        <v>0.4068000000000001</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>222.805</v>
       </c>
       <c r="B246" t="n">
-        <v>0.2033333333333333</v>
+        <v>0.4066666666666667</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>223.7123333333333</v>
       </c>
       <c r="B247" t="n">
-        <v>0.2025333333333333</v>
+        <v>0.4050666666666667</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>224.6273333333334</v>
       </c>
       <c r="B248" t="n">
-        <v>0.2031666666666667</v>
+        <v>0.4063333333333334</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>225.5346666666667</v>
       </c>
       <c r="B249" t="n">
-        <v>0.2045333333333333</v>
+        <v>0.4090666666666667</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>226.4436666666667</v>
       </c>
       <c r="B250" t="n">
-        <v>0.2036666666666667</v>
+        <v>0.4073333333333333</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>227.354</v>
       </c>
       <c r="B251" t="n">
-        <v>0.2025666666666667</v>
+        <v>0.4051333333333333</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>228.2646666666667</v>
       </c>
       <c r="B252" t="n">
-        <v>0.2024</v>
+        <v>0.4048</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>229.172</v>
       </c>
       <c r="B253" t="n">
-        <v>0.2026333333333334</v>
+        <v>0.4052666666666667</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>230.08</v>
       </c>
       <c r="B254" t="n">
-        <v>0.2031333333333333</v>
+        <v>0.4062666666666666</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>230.9923333333333</v>
       </c>
       <c r="B255" t="n">
-        <v>0.2040666666666666</v>
+        <v>0.4081333333333333</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>231.9026666666666</v>
       </c>
       <c r="B256" t="n">
-        <v>0.2049666666666667</v>
+        <v>0.4099333333333333</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>232.8103333333333</v>
       </c>
       <c r="B257" t="n">
-        <v>0.205</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>233.717</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2040666666666666</v>
+        <v>0.4081333333333333</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>234.627</v>
       </c>
       <c r="B259" t="n">
-        <v>0.2039</v>
+        <v>0.4077999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>235.5406666666667</v>
       </c>
       <c r="B260" t="n">
-        <v>0.2037</v>
+        <v>0.4074</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>236.446</v>
       </c>
       <c r="B261" t="n">
-        <v>0.2038333333333333</v>
+        <v>0.4076666666666667</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>237.3593333333333</v>
       </c>
       <c r="B262" t="n">
-        <v>0.2044</v>
+        <v>0.4088000000000001</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>238.2673333333333</v>
       </c>
       <c r="B263" t="n">
-        <v>0.2051</v>
+        <v>0.4102000000000001</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>239.1756666666667</v>
       </c>
       <c r="B264" t="n">
-        <v>0.2061333333333334</v>
+        <v>0.4122666666666667</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>240.0856666666667</v>
       </c>
       <c r="B265" t="n">
-        <v>0.2065666666666667</v>
+        <v>0.4131333333333334</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>240.9993333333333</v>
       </c>
       <c r="B266" t="n">
-        <v>0.2062333333333334</v>
+        <v>0.4124666666666667</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>241.9023333333333</v>
       </c>
       <c r="B267" t="n">
-        <v>0.2063333333333333</v>
+        <v>0.4126666666666667</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>242.8163333333333</v>
       </c>
       <c r="B268" t="n">
-        <v>0.2066666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>243.7246666666666</v>
       </c>
       <c r="B269" t="n">
-        <v>0.2066666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>244.631</v>
       </c>
       <c r="B270" t="n">
-        <v>0.2071</v>
+        <v>0.4142</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>245.5456666666666</v>
       </c>
       <c r="B271" t="n">
-        <v>0.2069333333333333</v>
+        <v>0.4138666666666667</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>246.451</v>
       </c>
       <c r="B272" t="n">
-        <v>0.2056666666666667</v>
+        <v>0.4113333333333333</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>247.3616666666667</v>
       </c>
       <c r="B273" t="n">
-        <v>0.2046666666666667</v>
+        <v>0.4093333333333333</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>248.2693333333333</v>
       </c>
       <c r="B274" t="n">
-        <v>0.2046</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>249.178</v>
       </c>
       <c r="B275" t="n">
-        <v>0.2054</v>
+        <v>0.4108</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>250.087</v>
       </c>
       <c r="B276" t="n">
-        <v>0.2064</v>
+        <v>0.4128</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>251.0003333333333</v>
       </c>
       <c r="B277" t="n">
-        <v>0.2074333333333333</v>
+        <v>0.4148666666666667</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>251.9113333333333</v>
       </c>
       <c r="B278" t="n">
-        <v>0.2074333333333333</v>
+        <v>0.4148666666666667</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>252.821</v>
       </c>
       <c r="B279" t="n">
-        <v>0.2063666666666667</v>
+        <v>0.4127333333333333</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>253.7273333333333</v>
       </c>
       <c r="B280" t="n">
-        <v>0.2053</v>
+        <v>0.4106</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>254.6376666666667</v>
       </c>
       <c r="B281" t="n">
-        <v>0.2046666666666667</v>
+        <v>0.4093333333333333</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>255.5483333333333</v>
       </c>
       <c r="B282" t="n">
-        <v>0.2045333333333333</v>
+        <v>0.4090666666666667</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>256.456</v>
       </c>
       <c r="B283" t="n">
-        <v>0.2050333333333333</v>
+        <v>0.4100666666666666</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>257.3643333333334</v>
       </c>
       <c r="B284" t="n">
-        <v>0.2053666666666667</v>
+        <v>0.4107333333333333</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>258.2773333333333</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2050333333333333</v>
+        <v>0.4100666666666666</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>259.187</v>
       </c>
       <c r="B286" t="n">
-        <v>0.2040333333333333</v>
+        <v>0.4080666666666666</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>260.0973333333333</v>
       </c>
       <c r="B287" t="n">
-        <v>0.2037666666666667</v>
+        <v>0.4075333333333333</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>261.0036666666667</v>
       </c>
       <c r="B288" t="n">
-        <v>0.2041666666666667</v>
+        <v>0.4083333333333334</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>261.9156666666667</v>
       </c>
       <c r="B289" t="n">
-        <v>0.2035</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>262.823</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2025666666666667</v>
+        <v>0.4051333333333333</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>263.733</v>
       </c>
       <c r="B291" t="n">
-        <v>0.2020333333333333</v>
+        <v>0.4040666666666666</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>264.6443333333333</v>
       </c>
       <c r="B292" t="n">
-        <v>0.2015333333333333</v>
+        <v>0.4030666666666667</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>265.553</v>
       </c>
       <c r="B293" t="n">
-        <v>0.2012</v>
+        <v>0.4023999999999999</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>266.4596666666667</v>
       </c>
       <c r="B294" t="n">
-        <v>0.2014666666666667</v>
+        <v>0.4029333333333334</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>267.372</v>
       </c>
       <c r="B295" t="n">
-        <v>0.2028666666666667</v>
+        <v>0.4057333333333333</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>268.2813333333334</v>
       </c>
       <c r="B296" t="n">
-        <v>0.2021333333333334</v>
+        <v>0.4042666666666667</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>269.1933333333333</v>
       </c>
       <c r="B297" t="n">
-        <v>0.2008666666666666</v>
+        <v>0.4017333333333333</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>270.0973333333333</v>
       </c>
       <c r="B298" t="n">
-        <v>0.2000666666666667</v>
+        <v>0.4001333333333334</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>271.008</v>
       </c>
       <c r="B299" t="n">
-        <v>0.1997333333333333</v>
+        <v>0.3994666666666667</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>271.9226666666667</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1992</v>
+        <v>0.3984</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>272.8276666666667</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1987666666666666</v>
+        <v>0.3975333333333333</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>273.7376666666667</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1979</v>
+        <v>0.3958</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>274.6490000000001</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1970333333333333</v>
+        <v>0.3940666666666666</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>275.558</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1972</v>
+        <v>0.3944</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>276.4656666666667</v>
       </c>
       <c r="B305" t="n">
-        <v>0.198</v>
+        <v>0.3960000000000001</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>277.3776666666666</v>
       </c>
       <c r="B306" t="n">
-        <v>0.1984333333333333</v>
+        <v>0.3968666666666666</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>278.2863333333333</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1984333333333334</v>
+        <v>0.3968666666666667</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>279.195</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1980333333333334</v>
+        <v>0.3960666666666667</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>280.1043333333333</v>
       </c>
       <c r="B309" t="n">
-        <v>0.1969333333333333</v>
+        <v>0.3938666666666666</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>281.0126666666667</v>
       </c>
       <c r="B310" t="n">
-        <v>0.1962</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>281.9256666666666</v>
       </c>
       <c r="B311" t="n">
-        <v>0.1965666666666667</v>
+        <v>0.3931333333333334</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>282.8313333333334</v>
       </c>
       <c r="B312" t="n">
-        <v>0.197</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>283.7443333333333</v>
       </c>
       <c r="B313" t="n">
-        <v>0.1973333333333333</v>
+        <v>0.3946666666666667</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>284.6503333333333</v>
       </c>
       <c r="B314" t="n">
-        <v>0.1980333333333334</v>
+        <v>0.3960666666666667</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>285.5606666666667</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1983666666666667</v>
+        <v>0.3967333333333333</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>286.4706666666667</v>
       </c>
       <c r="B316" t="n">
-        <v>0.1979333333333334</v>
+        <v>0.3958666666666668</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>287.3793333333334</v>
       </c>
       <c r="B317" t="n">
-        <v>0.1974</v>
+        <v>0.3948</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>288.2906666666667</v>
       </c>
       <c r="B318" t="n">
-        <v>0.1976</v>
+        <v>0.3952</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>289.1993333333333</v>
       </c>
       <c r="B319" t="n">
-        <v>0.1978666666666667</v>
+        <v>0.3957333333333333</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>290.1109999999999</v>
       </c>
       <c r="B320" t="n">
-        <v>0.1982666666666667</v>
+        <v>0.3965333333333333</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>291.0223333333333</v>
       </c>
       <c r="B321" t="n">
-        <v>0.1979</v>
+        <v>0.3958</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>291.9266666666667</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1973666666666667</v>
+        <v>0.3947333333333334</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>292.8366666666666</v>
       </c>
       <c r="B323" t="n">
-        <v>0.1993333333333333</v>
+        <v>0.3986666666666667</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>293.7466666666667</v>
       </c>
       <c r="B324" t="n">
-        <v>0.2002333333333333</v>
+        <v>0.4004666666666667</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>294.6546666666666</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1995666666666667</v>
+        <v>0.3991333333333333</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>295.567</v>
       </c>
       <c r="B326" t="n">
-        <v>0.2003333333333333</v>
+        <v>0.4006666666666667</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>296.4746666666667</v>
       </c>
       <c r="B327" t="n">
-        <v>0.2023333333333333</v>
+        <v>0.4046666666666667</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>297.3866666666667</v>
       </c>
       <c r="B328" t="n">
-        <v>0.2037333333333333</v>
+        <v>0.4074666666666666</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>298.2926666666667</v>
       </c>
       <c r="B329" t="n">
-        <v>0.2029333333333333</v>
+        <v>0.4058666666666667</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>299.2043333333333</v>
       </c>
       <c r="B330" t="n">
-        <v>0.2018</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>300.1156666666666</v>
       </c>
       <c r="B331" t="n">
-        <v>0.2016333333333333</v>
+        <v>0.4032666666666667</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>301.025</v>
       </c>
       <c r="B332" t="n">
-        <v>0.2020666666666667</v>
+        <v>0.4041333333333334</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>301.9333333333333</v>
       </c>
       <c r="B333" t="n">
-        <v>0.2027333333333333</v>
+        <v>0.4054666666666666</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>302.8433333333334</v>
       </c>
       <c r="B334" t="n">
-        <v>0.2034</v>
+        <v>0.4068000000000001</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>303.7536666666667</v>
       </c>
       <c r="B335" t="n">
-        <v>0.2029</v>
+        <v>0.4058</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>304.6626666666667</v>
       </c>
       <c r="B336" t="n">
-        <v>0.2017333333333333</v>
+        <v>0.4034666666666666</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>305.5693333333333</v>
       </c>
       <c r="B337" t="n">
-        <v>0.2009333333333333</v>
+        <v>0.4018666666666666</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>306.483</v>
       </c>
       <c r="B338" t="n">
-        <v>0.2010666666666666</v>
+        <v>0.4021333333333333</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>307.3933333333334</v>
       </c>
       <c r="B339" t="n">
-        <v>0.2014666666666667</v>
+        <v>0.4029333333333334</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>308.3023333333333</v>
       </c>
       <c r="B340" t="n">
-        <v>0.2016666666666667</v>
+        <v>0.4033333333333333</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>309.212</v>
       </c>
       <c r="B341" t="n">
-        <v>0.2018666666666666</v>
+        <v>0.4037333333333333</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>310.1203333333333</v>
       </c>
       <c r="B342" t="n">
-        <v>0.2025666666666667</v>
+        <v>0.4051333333333333</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>311.0273333333333</v>
       </c>
       <c r="B343" t="n">
-        <v>0.2031</v>
+        <v>0.4061999999999999</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>311.9393333333333</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2034</v>
+        <v>0.4068</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>312.8516666666667</v>
       </c>
       <c r="B345" t="n">
-        <v>0.2042</v>
+        <v>0.4084</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>313.7623333333333</v>
       </c>
       <c r="B346" t="n">
-        <v>0.2046</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>314.675</v>
       </c>
       <c r="B347" t="n">
-        <v>0.2035</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>315.5803333333334</v>
       </c>
       <c r="B348" t="n">
-        <v>0.2015666666666667</v>
+        <v>0.4031333333333333</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>316.489</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1997</v>
+        <v>0.3994</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>317.3993333333333</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1996</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>318.306</v>
       </c>
       <c r="B351" t="n">
-        <v>0.201</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>319.2183333333333</v>
       </c>
       <c r="B352" t="n">
-        <v>0.2019333333333333</v>
+        <v>0.4038666666666667</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>320.1226666666666</v>
       </c>
       <c r="B353" t="n">
-        <v>0.2025333333333333</v>
+        <v>0.4050666666666667</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>321.037</v>
       </c>
       <c r="B354" t="n">
-        <v>0.2027666666666667</v>
+        <v>0.4055333333333334</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>321.9443333333333</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2025333333333333</v>
+        <v>0.4050666666666667</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>322.8573333333333</v>
       </c>
       <c r="B356" t="n">
-        <v>0.2022</v>
+        <v>0.4044</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>323.7626666666667</v>
       </c>
       <c r="B357" t="n">
-        <v>0.2027666666666667</v>
+        <v>0.4055333333333333</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>324.6786666666667</v>
       </c>
       <c r="B358" t="n">
-        <v>0.2025666666666667</v>
+        <v>0.4051333333333333</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>325.5856666666667</v>
       </c>
       <c r="B359" t="n">
-        <v>0.2034</v>
+        <v>0.4068</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>326.4946666666667</v>
       </c>
       <c r="B360" t="n">
-        <v>0.2046333333333333</v>
+        <v>0.4092666666666667</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>327.4036666666667</v>
       </c>
       <c r="B361" t="n">
-        <v>0.2055333333333333</v>
+        <v>0.4110666666666666</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>328.3133333333333</v>
       </c>
       <c r="B362" t="n">
-        <v>0.2049333333333333</v>
+        <v>0.4098666666666667</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>329.2243333333333</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2041333333333333</v>
+        <v>0.4082666666666666</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>330.1283333333333</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2042666666666667</v>
+        <v>0.4085333333333334</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>331.042</v>
       </c>
       <c r="B365" t="n">
-        <v>0.2065</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>331.9516666666667</v>
       </c>
       <c r="B366" t="n">
-        <v>0.2080333333333333</v>
+        <v>0.4160666666666666</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>332.863</v>
       </c>
       <c r="B367" t="n">
-        <v>0.2084</v>
+        <v>0.4168</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>333.7716666666667</v>
       </c>
       <c r="B368" t="n">
-        <v>0.2091</v>
+        <v>0.4182</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>334.6816666666667</v>
       </c>
       <c r="B369" t="n">
-        <v>0.2098</v>
+        <v>0.4196</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>335.5926666666667</v>
       </c>
       <c r="B370" t="n">
-        <v>0.2093666666666667</v>
+        <v>0.4187333333333334</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>336.5016666666667</v>
       </c>
       <c r="B371" t="n">
-        <v>0.2084666666666667</v>
+        <v>0.4169333333333334</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>337.4073333333333</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2083666666666667</v>
+        <v>0.4167333333333333</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>338.321</v>
       </c>
       <c r="B373" t="n">
-        <v>0.2080666666666667</v>
+        <v>0.4161333333333334</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>339.2296666666667</v>
       </c>
       <c r="B374" t="n">
-        <v>0.2078</v>
+        <v>0.4156</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>340.1366666666666</v>
       </c>
       <c r="B375" t="n">
-        <v>0.2078333333333333</v>
+        <v>0.4156666666666666</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>341.0436666666667</v>
       </c>
       <c r="B376" t="n">
-        <v>0.2079</v>
+        <v>0.4158</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>341.9606666666667</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2074</v>
+        <v>0.4148000000000001</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>342.8663333333333</v>
       </c>
       <c r="B378" t="n">
-        <v>0.2072</v>
+        <v>0.4144</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>343.7763333333333</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2087333333333334</v>
+        <v>0.4174666666666667</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>344.684</v>
       </c>
       <c r="B380" t="n">
-        <v>0.2095</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>345.596</v>
       </c>
       <c r="B381" t="n">
-        <v>0.2080666666666666</v>
+        <v>0.4161333333333333</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>346.503</v>
       </c>
       <c r="B382" t="n">
-        <v>0.2065333333333333</v>
+        <v>0.4130666666666667</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>347.4106666666667</v>
       </c>
       <c r="B383" t="n">
-        <v>0.2063666666666667</v>
+        <v>0.4127333333333333</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>348.3233333333333</v>
       </c>
       <c r="B384" t="n">
-        <v>0.2070666666666666</v>
+        <v>0.4141333333333333</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>349.233</v>
       </c>
       <c r="B385" t="n">
-        <v>0.2099</v>
+        <v>0.4198</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>350.1413333333333</v>
       </c>
       <c r="B386" t="n">
-        <v>0.2116</v>
+        <v>0.4232</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>351.0533333333333</v>
       </c>
       <c r="B387" t="n">
-        <v>0.2116</v>
+        <v>0.4232</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>351.962</v>
       </c>
       <c r="B388" t="n">
-        <v>0.2111</v>
+        <v>0.4222</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>352.8700000000001</v>
       </c>
       <c r="B389" t="n">
-        <v>0.2112</v>
+        <v>0.4223999999999999</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>353.776</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2127333333333333</v>
+        <v>0.4254666666666667</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>354.6893333333333</v>
       </c>
       <c r="B391" t="n">
-        <v>0.2137666666666667</v>
+        <v>0.4275333333333333</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>355.5976666666667</v>
       </c>
       <c r="B392" t="n">
-        <v>0.2139666666666667</v>
+        <v>0.4279333333333333</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>356.5056666666667</v>
       </c>
       <c r="B393" t="n">
-        <v>0.2138333333333333</v>
+        <v>0.4276666666666666</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>357.4176666666667</v>
       </c>
       <c r="B394" t="n">
-        <v>0.2125333333333333</v>
+        <v>0.4250666666666666</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>358.3276666666667</v>
       </c>
       <c r="B395" t="n">
-        <v>0.2117333333333333</v>
+        <v>0.4234666666666667</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>359.235</v>
       </c>
       <c r="B396" t="n">
-        <v>0.2121</v>
+        <v>0.4242000000000001</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>360.1496666666667</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2114333333333333</v>
+        <v>0.4228666666666667</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>361.0556666666666</v>
       </c>
       <c r="B398" t="n">
-        <v>0.2101333333333334</v>
+        <v>0.4202666666666667</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>361.9636666666667</v>
       </c>
       <c r="B399" t="n">
-        <v>0.2096333333333333</v>
+        <v>0.4192666666666667</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>362.8763333333334</v>
       </c>
       <c r="B400" t="n">
-        <v>0.2092333333333333</v>
+        <v>0.4184666666666666</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>363.7866666666667</v>
       </c>
       <c r="B401" t="n">
-        <v>0.2088</v>
+        <v>0.4176</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>364.6956666666667</v>
       </c>
       <c r="B402" t="n">
-        <v>0.2088666666666667</v>
+        <v>0.4177333333333333</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>365.6013333333333</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2091</v>
+        <v>0.4182</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>366.512</v>
       </c>
       <c r="B404" t="n">
-        <v>0.2093</v>
+        <v>0.4186</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>367.4243333333334</v>
       </c>
       <c r="B405" t="n">
-        <v>0.2101</v>
+        <v>0.4202</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>368.3323333333333</v>
       </c>
       <c r="B406" t="n">
-        <v>0.2114</v>
+        <v>0.4228000000000001</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>369.2426666666667</v>
       </c>
       <c r="B407" t="n">
-        <v>0.2135</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>370.151</v>
       </c>
       <c r="B408" t="n">
-        <v>0.2148</v>
+        <v>0.4296</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>371.0633333333333</v>
       </c>
       <c r="B409" t="n">
-        <v>0.2143333333333333</v>
+        <v>0.4286666666666667</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>371.9706666666666</v>
       </c>
       <c r="B410" t="n">
-        <v>0.2131</v>
+        <v>0.4262</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>372.882</v>
       </c>
       <c r="B411" t="n">
-        <v>0.2126</v>
+        <v>0.4252</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>373.7923333333333</v>
       </c>
       <c r="B412" t="n">
-        <v>0.2118</v>
+        <v>0.4236</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>374.6993333333333</v>
       </c>
       <c r="B413" t="n">
-        <v>0.2126333333333333</v>
+        <v>0.4252666666666666</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>375.609</v>
       </c>
       <c r="B414" t="n">
-        <v>0.2143666666666667</v>
+        <v>0.4287333333333334</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>376.5166666666667</v>
       </c>
       <c r="B415" t="n">
-        <v>0.2147666666666667</v>
+        <v>0.4295333333333333</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>377.4316666666667</v>
       </c>
       <c r="B416" t="n">
-        <v>0.2137666666666667</v>
+        <v>0.4275333333333333</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>378.3396666666667</v>
       </c>
       <c r="B417" t="n">
-        <v>0.213</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>379.2486666666667</v>
       </c>
       <c r="B418" t="n">
-        <v>0.2120666666666667</v>
+        <v>0.4241333333333333</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>380.1553333333333</v>
       </c>
       <c r="B419" t="n">
-        <v>0.2119666666666667</v>
+        <v>0.4239333333333333</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>381.0626666666667</v>
       </c>
       <c r="B420" t="n">
-        <v>0.2122</v>
+        <v>0.4244000000000001</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>381.9786666666666</v>
       </c>
       <c r="B421" t="n">
-        <v>0.2114666666666667</v>
+        <v>0.4229333333333334</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>382.8866666666667</v>
       </c>
       <c r="B422" t="n">
-        <v>0.2106666666666667</v>
+        <v>0.4213333333333333</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>383.7943333333333</v>
       </c>
       <c r="B423" t="n">
-        <v>0.2111333333333333</v>
+        <v>0.4222666666666666</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>384.7056666666667</v>
       </c>
       <c r="B424" t="n">
-        <v>0.2116666666666667</v>
+        <v>0.4233333333333333</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>385.613</v>
       </c>
       <c r="B425" t="n">
-        <v>0.2117</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>386.5216666666667</v>
       </c>
       <c r="B426" t="n">
-        <v>0.2121666666666667</v>
+        <v>0.4243333333333334</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>387.433</v>
       </c>
       <c r="B427" t="n">
-        <v>0.2133333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>388.345</v>
       </c>
       <c r="B428" t="n">
-        <v>0.2149</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>389.2516666666667</v>
       </c>
       <c r="B429" t="n">
-        <v>0.2163666666666667</v>
+        <v>0.4327333333333334</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>390.1623333333334</v>
       </c>
       <c r="B430" t="n">
-        <v>0.2169</v>
+        <v>0.4338</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>391.0723333333333</v>
       </c>
       <c r="B431" t="n">
-        <v>0.2168</v>
+        <v>0.4335999999999999</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>391.9823333333334</v>
       </c>
       <c r="B432" t="n">
-        <v>0.2173333333333333</v>
+        <v>0.4346666666666666</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>392.891</v>
       </c>
       <c r="B433" t="n">
-        <v>0.2173333333333334</v>
+        <v>0.4346666666666667</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>393.7996666666666</v>
       </c>
       <c r="B434" t="n">
-        <v>0.2176333333333333</v>
+        <v>0.4352666666666667</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>394.7123333333333</v>
       </c>
       <c r="B435" t="n">
-        <v>0.2176333333333333</v>
+        <v>0.4352666666666667</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>395.6216666666667</v>
       </c>
       <c r="B436" t="n">
-        <v>0.2173666666666667</v>
+        <v>0.4347333333333334</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>396.5266666666666</v>
       </c>
       <c r="B437" t="n">
-        <v>0.2167666666666667</v>
+        <v>0.4335333333333333</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>397.4356666666667</v>
       </c>
       <c r="B438" t="n">
-        <v>0.2165666666666667</v>
+        <v>0.4331333333333333</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>398.345</v>
       </c>
       <c r="B439" t="n">
-        <v>0.2153333333333333</v>
+        <v>0.4306666666666667</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>399.2603333333333</v>
       </c>
       <c r="B440" t="n">
-        <v>0.2138333333333333</v>
+        <v>0.4276666666666666</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>400.1683333333334</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2151666666666666</v>
+        <v>0.4303333333333333</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>401.0743333333333</v>
       </c>
       <c r="B442" t="n">
-        <v>0.2177333333333333</v>
+        <v>0.4354666666666667</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>401.9883333333333</v>
       </c>
       <c r="B443" t="n">
-        <v>0.2184333333333333</v>
+        <v>0.4368666666666667</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>402.8966666666667</v>
       </c>
       <c r="B444" t="n">
-        <v>0.2181</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>403.8066666666667</v>
       </c>
       <c r="B445" t="n">
-        <v>0.2185666666666667</v>
+        <v>0.4371333333333333</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>404.718</v>
       </c>
       <c r="B446" t="n">
-        <v>0.2193</v>
+        <v>0.4386</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>405.6233333333333</v>
       </c>
       <c r="B447" t="n">
-        <v>0.2188666666666667</v>
+        <v>0.4377333333333334</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>406.5333333333333</v>
       </c>
       <c r="B448" t="n">
-        <v>0.2181333333333334</v>
+        <v>0.4362666666666667</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>407.4469999999999</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2174333333333333</v>
+        <v>0.4348666666666667</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>408.3543333333334</v>
       </c>
       <c r="B450" t="n">
-        <v>0.2176</v>
+        <v>0.4352</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>409.2606666666666</v>
       </c>
       <c r="B451" t="n">
-        <v>0.2186</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>410.1726666666667</v>
       </c>
       <c r="B452" t="n">
-        <v>0.2183</v>
+        <v>0.4366</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>411.08</v>
       </c>
       <c r="B453" t="n">
-        <v>0.2183666666666667</v>
+        <v>0.4367333333333334</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>411.9893333333334</v>
       </c>
       <c r="B454" t="n">
-        <v>0.2195666666666667</v>
+        <v>0.4391333333333334</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>412.9026666666667</v>
       </c>
       <c r="B455" t="n">
-        <v>0.2203333333333333</v>
+        <v>0.4406666666666666</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>413.8083333333333</v>
       </c>
       <c r="B456" t="n">
-        <v>0.2217</v>
+        <v>0.4434</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>414.7176666666667</v>
       </c>
       <c r="B457" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.4466666666666667</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>415.6313333333333</v>
       </c>
       <c r="B458" t="n">
-        <v>0.2237666666666667</v>
+        <v>0.4475333333333333</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>416.538</v>
       </c>
       <c r="B459" t="n">
-        <v>0.2236333333333333</v>
+        <v>0.4472666666666666</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>417.4513333333334</v>
       </c>
       <c r="B460" t="n">
-        <v>0.2223333333333334</v>
+        <v>0.4446666666666667</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>418.3566666666667</v>
       </c>
       <c r="B461" t="n">
-        <v>0.2189666666666667</v>
+        <v>0.4379333333333333</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>419.2676666666666</v>
       </c>
       <c r="B462" t="n">
-        <v>0.2158333333333333</v>
+        <v>0.4316666666666666</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>420.177</v>
       </c>
       <c r="B463" t="n">
-        <v>0.2159</v>
+        <v>0.4318</v>
       </c>
     </row>
   </sheetData>
